--- a/5_sem_ZS_2021-22/PKS/zadania/zadanie02/data packets.xlsx
+++ b/5_sem_ZS_2021-22/PKS/zadania/zadanie02/data packets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\5_sem_ZS_2021-22\PKS\zadania\zadanie02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9946F0F3-D526-4C9B-9476-D3D798573957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DD7557-94EC-4F99-8945-F82C6913F83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19600" yWindow="2010" windowWidth="14400" windowHeight="7460" xr2:uid="{E6095337-E749-46C2-A6B2-79C6025392AF}"/>
+    <workbookView xWindow="3760" yWindow="1340" windowWidth="14400" windowHeight="7460" xr2:uid="{E6095337-E749-46C2-A6B2-79C6025392AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,9 +344,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,7 +408,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,7 +734,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,157 +752,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <f>B3+C3+D3+E3+F3</f>
         <v>98</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
-      <c r="B3" s="19">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19">
+      <c r="A3" s="12"/>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
         <v>32</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>32</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>32</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="13"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <f>B8+C8+D8+E8+F8</f>
         <v>98</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16">
-        <v>1</v>
-      </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="A8" s="14"/>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15">
         <v>32</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>32</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>32</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
@@ -918,101 +915,101 @@
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="24" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <f>B14+C14+D14+E14+F14</f>
         <v>98</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16">
-        <v>1</v>
-      </c>
-      <c r="C14" s="16">
-        <v>1</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15">
         <v>32</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>32</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>32</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="15"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1028,327 +1025,327 @@
       <c r="F15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="13"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <f>B20+C20+D20+E20</f>
         <v>66</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16">
-        <v>1</v>
-      </c>
-      <c r="C20" s="16">
-        <v>1</v>
-      </c>
-      <c r="D20" s="19">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18">
         <v>32</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>32</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="15"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="13"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="24" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <f>B26+C26</f>
         <v>2</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16">
-        <v>1</v>
-      </c>
-      <c r="C26" s="16">
-        <v>1</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15">
+        <v>1</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
         <v>32</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="13"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="13">
         <f>B31+C31</f>
         <v>2</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16">
-        <v>1</v>
-      </c>
-      <c r="C31" s="16">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="A31" s="14"/>
+      <c r="B31" s="15">
+        <v>1</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15">
         <v>32</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="13"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="13"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
